--- a/Power Consumption.xlsx
+++ b/Power Consumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\Thesis\ThesisCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083EB3DA-C337-47B9-8C88-54A130F1CC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3074B64-89A7-4AC6-8EFA-E08A54A6E02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1845" windowWidth="28800" windowHeight="15345" xr2:uid="{C8A5F909-007F-4A56-A6DE-B8CAFBB5748C}"/>
+    <workbookView xWindow="30" yWindow="825" windowWidth="28800" windowHeight="15585" xr2:uid="{C8A5F909-007F-4A56-A6DE-B8CAFBB5748C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>no encryption</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Current (mA)</t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -230,16 +233,269 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-4D81-43E8-851E-A3FAB89A38D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$G$2:$G$14</c:f>
@@ -513,7 +769,571 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Power</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Concumption of Encryption Algorithms</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1040524320424859"/>
+          <c:y val="0.14652837227127485"/>
+          <c:w val="0.86735757445523987"/>
+          <c:h val="0.58257784270199786"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Current (mA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$18:$G$30</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>AES</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ascon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blowfish</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>chacha20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Des</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gift_Corb</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Present</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Romuls_N</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Speck</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>tinyECC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TinyJAMBU</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Xoodyak</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XXTEA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$18:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>28.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.571000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.161999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.277999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.536999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EC0-40A7-AAC6-F93D867C1D03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1856907920"/>
+        <c:axId val="284367104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1856907920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Encryption</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Algorithms</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37816661806163115"/>
+              <c:y val="0.89647393464000225"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284367104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="284367104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mA)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.1981806367771277E-3"/>
+              <c:y val="0.32397016444519655"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1856907920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1056,6 +1876,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1089,6 +2412,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFCB352-119E-B6BB-3BA0-645B0E484E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1414,10 +2773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84835979-90D5-4786-8C73-6B907B377576}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,6 +2958,123 @@
         <v>27.3</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>28.53</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>28.532</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>28.228000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>28.571000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>28.161999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <v>28.459</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25">
+        <v>28.277999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>28.536999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <v>27.28</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>28.605</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30">
+        <v>28.465</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:H15">
     <sortCondition ref="G2:G15"/>
